--- a/results_processing/hex_results.xlsx
+++ b/results_processing/hex_results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="55">
   <si>
     <t>wins</t>
   </si>
@@ -44,157 +44,142 @@
     <t>no games</t>
   </si>
   <si>
+    <t>mcts10000</t>
+  </si>
+  <si>
+    <t>mctsstrategies10000(random_strategy:mobility_strategy_vs:mobility_strategy:evaluatehex_strategy)</t>
+  </si>
+  <si>
+    <t>mcts5000</t>
+  </si>
+  <si>
+    <t>mctsstrategies5000(random_strategy:mobility_strategy_vs:mobility_strategy:evaluatehex_strategy)</t>
+  </si>
+  <si>
     <t>alphabeta10</t>
   </si>
   <si>
+    <t>alphabeta4</t>
+  </si>
+  <si>
     <t>alphabeta6</t>
   </si>
   <si>
     <t>alphabeta8</t>
   </si>
   <si>
-    <t>alphabeta4</t>
+    <t>mctsstrategy10000(mobility_strategy)</t>
+  </si>
+  <si>
+    <t>mcts2000</t>
+  </si>
+  <si>
+    <t>mctsstrategies2000(random_strategy:mobility_strategy_vs:mobility_strategy:evaluatehex_strategy)</t>
+  </si>
+  <si>
+    <t>mctsstrategy5000(mobility_strategy)</t>
+  </si>
+  <si>
+    <t>mctsstrategy10000(mobility_strategy_vs)</t>
+  </si>
+  <si>
+    <t>mctsstrategy10000(evaluatehex_strategy)</t>
   </si>
   <si>
     <t>evaluatehex_strategy</t>
   </si>
   <si>
+    <t>mctsstrategy5000(mobility_strategy_vs)</t>
+  </si>
+  <si>
+    <t>mctsstrategies1000(random_strategy:mobility_strategy_vs:mobility_strategy:evaluatehex_strategy)</t>
+  </si>
+  <si>
+    <t>mcts1000</t>
+  </si>
+  <si>
+    <t>mctsstrategy5000(evaluatehex_strategy)</t>
+  </si>
+  <si>
     <t>mctsstrategy2000(mobility_strategy_vs)</t>
   </si>
   <si>
+    <t>mctsstrategy2000(evaluatehex_strategy)</t>
+  </si>
+  <si>
     <t>mctsstrategy2000(mobility_strategy)</t>
   </si>
   <si>
-    <t>mcts10000</t>
+    <t>mctsstrategy1000(mobility_strategy_vs)</t>
+  </si>
+  <si>
+    <t>mctsstrategy1000(evaluatehex_strategy)</t>
+  </si>
+  <si>
+    <t>mctsstrategy1000(mobility_strategy)</t>
+  </si>
+  <si>
+    <t>random_strategy</t>
+  </si>
+  <si>
+    <t>mobility_strategy</t>
+  </si>
+  <si>
+    <t>mobility_strategy_vs</t>
   </si>
   <si>
     <t>mctsrave10000</t>
   </si>
   <si>
-    <t>mobility_strategy</t>
-  </si>
-  <si>
-    <t>mobility_strategy_vs</t>
-  </si>
-  <si>
-    <t>random_strategy</t>
-  </si>
-  <si>
-    <t>mctsstrategy1000(mobility_strategy)</t>
-  </si>
-  <si>
-    <t>mctsstrategy1000(mobility_strategy_vs)</t>
-  </si>
-  <si>
-    <t>mctsstrategies1000(random_strategy:mobility_strategy_vs:mobility_strategy:evaluatehex_strategy)</t>
-  </si>
-  <si>
-    <t>mctsstrategy1000(evaluatehex_strategy)</t>
-  </si>
-  <si>
-    <t>mctsstrategy5000(mobility_strategy)</t>
-  </si>
-  <si>
-    <t>mctsstrategies2000(random_strategy:mobility_strategy_vs:mobility_strategy:evaluatehex_strategy)</t>
-  </si>
-  <si>
-    <t>mctsstrategy5000(mobility_strategy_vs)</t>
-  </si>
-  <si>
-    <t>mctsstrategies10000(random_strategy:mobility_strategy_vs:mobility_strategy:evaluatehex_strategy)</t>
+    <t>mctsrave5000</t>
   </si>
   <si>
     <t>mctsrave1000</t>
   </si>
   <si>
-    <t>mcts2000</t>
-  </si>
-  <si>
-    <t>mctsstrategies5000(random_strategy:mobility_strategy_vs:mobility_strategy:evaluatehex_strategy)</t>
-  </si>
-  <si>
-    <t>mcts1000</t>
-  </si>
-  <si>
-    <t>mcts5000</t>
-  </si>
-  <si>
     <t>mctsrave2000</t>
   </si>
   <si>
-    <t>mctsrave5000</t>
-  </si>
-  <si>
-    <t>mctsstrategy10000(mobility_strategy)</t>
-  </si>
-  <si>
-    <t>mctsstrategy2000(evaluatehex_strategy)</t>
-  </si>
-  <si>
-    <t>mctsstrategy10000(mobility_strategy_vs)</t>
-  </si>
-  <si>
-    <t>mctsstrategy10000(evaluatehex_strategy)</t>
-  </si>
-  <si>
-    <t>mctsstrategy5000(evaluatehex_strategy)</t>
+    <t>2-0-3</t>
+  </si>
+  <si>
+    <t>1-0-4</t>
   </si>
   <si>
     <t>0-0-5</t>
   </si>
   <si>
-    <t>2-0-3</t>
-  </si>
-  <si>
-    <t>1-0-4</t>
+    <t>3-0-2</t>
+  </si>
+  <si>
+    <t>4-0-1</t>
+  </si>
+  <si>
+    <t>5-0-0</t>
+  </si>
+  <si>
+    <t>0-0-4</t>
+  </si>
+  <si>
+    <t>2-0-2</t>
+  </si>
+  <si>
+    <t>1-0-3</t>
+  </si>
+  <si>
+    <t>1-0-2</t>
+  </si>
+  <si>
+    <t>0-0-3</t>
+  </si>
+  <si>
+    <t>4-0-0</t>
   </si>
   <si>
     <t>0-0-0</t>
   </si>
   <si>
-    <t>5-0-0</t>
-  </si>
-  <si>
-    <t>4-0-1</t>
-  </si>
-  <si>
-    <t>1-0-1</t>
-  </si>
-  <si>
-    <t>3-0-2</t>
-  </si>
-  <si>
-    <t>0-0-1</t>
-  </si>
-  <si>
-    <t>1-0-0</t>
-  </si>
-  <si>
-    <t>1-0-3</t>
-  </si>
-  <si>
     <t>3-0-0</t>
-  </si>
-  <si>
-    <t>4-0-0</t>
-  </si>
-  <si>
-    <t>0-0-2</t>
-  </si>
-  <si>
-    <t>3-0-1</t>
-  </si>
-  <si>
-    <t>2-0-1</t>
-  </si>
-  <si>
-    <t>1-0-2</t>
-  </si>
-  <si>
-    <t>2-0-0</t>
-  </si>
-  <si>
-    <t>2-0-2</t>
   </si>
 </sst>
 </file>
@@ -592,31 +577,31 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>48804.86</v>
+        <v>65155.68</v>
       </c>
       <c r="F2">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="G2">
-        <v>92.43421052631578</v>
+        <v>93.4375</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>7.565789473684211</v>
+        <v>6.5625</v>
       </c>
       <c r="J2">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -624,31 +609,31 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>48679.29</v>
+        <v>72103.78999999999</v>
       </c>
       <c r="F3">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="G3">
-        <v>92.43421052631578</v>
+        <v>93.4375</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>7.565789473684211</v>
+        <v>6.5625</v>
       </c>
       <c r="J3">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -656,31 +641,31 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E4">
-        <v>48968.55</v>
+        <v>55522.19</v>
       </c>
       <c r="F4">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="G4">
-        <v>92.43421052631578</v>
+        <v>81.875</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.565789473684211</v>
+        <v>18.125</v>
       </c>
       <c r="J4">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -688,31 +673,31 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E5">
-        <v>47603.71</v>
+        <v>59670.6</v>
       </c>
       <c r="F5">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="G5">
-        <v>92.4092409240924</v>
+        <v>81.875</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.590759075907591</v>
+        <v>18.125</v>
       </c>
       <c r="J5">
-        <v>303</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -720,31 +705,31 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E6">
-        <v>39302.64</v>
+        <v>43306.72</v>
       </c>
       <c r="F6">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="G6">
-        <v>85.24590163934425</v>
+        <v>72.2397476340694</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.75409836065574</v>
+        <v>27.7602523659306</v>
       </c>
       <c r="J6">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -752,31 +737,31 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>140</v>
+        <v>229</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="E7">
-        <v>123989.61</v>
+        <v>48796.84</v>
       </c>
       <c r="F7">
-        <v>140</v>
+        <v>229</v>
       </c>
       <c r="G7">
-        <v>49.12280701754386</v>
+        <v>72.2397476340694</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>50.87719298245614</v>
+        <v>27.7602523659306</v>
       </c>
       <c r="J7">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -784,31 +769,31 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="E8">
-        <v>112980.55</v>
+        <v>49393.07</v>
       </c>
       <c r="F8">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="G8">
-        <v>49.28571428571429</v>
+        <v>72.2397476340694</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>50.71428571428571</v>
+        <v>27.7602523659306</v>
       </c>
       <c r="J8">
-        <v>280</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -816,31 +801,31 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="E9">
-        <v>63947.45</v>
+        <v>45899.19</v>
       </c>
       <c r="F9">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="G9">
-        <v>46.99646643109541</v>
+        <v>72.0125786163522</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>53.00353356890459</v>
+        <v>27.9874213836478</v>
       </c>
       <c r="J9">
-        <v>283</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -848,31 +833,31 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="E10">
-        <v>141207.48</v>
+        <v>57681.49</v>
       </c>
       <c r="F10">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="G10">
-        <v>46.52014652014652</v>
+        <v>72.58064516129032</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>53.47985347985348</v>
+        <v>27.41935483870968</v>
       </c>
       <c r="J10">
-        <v>273</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -880,31 +865,31 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="E11">
-        <v>47085.04</v>
+        <v>40709.39</v>
       </c>
       <c r="F11">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="G11">
-        <v>43.79310344827586</v>
+        <v>63.74999999999999</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>56.20689655172414</v>
+        <v>36.25</v>
       </c>
       <c r="J11">
-        <v>290</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -912,31 +897,31 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="E12">
-        <v>46755.2</v>
+        <v>47914.44</v>
       </c>
       <c r="F12">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="G12">
-        <v>43.44827586206896</v>
+        <v>63.74999999999999</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>56.55172413793104</v>
+        <v>36.25</v>
       </c>
       <c r="J12">
-        <v>290</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -944,31 +929,31 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="E13">
-        <v>56420.74</v>
+        <v>35242.32</v>
       </c>
       <c r="F13">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="G13">
-        <v>42.41379310344828</v>
+        <v>60.62499999999999</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>57.58620689655173</v>
+        <v>39.375</v>
       </c>
       <c r="J13">
-        <v>290</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -976,31 +961,31 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="E14">
-        <v>94951.49000000001</v>
+        <v>101738.26</v>
       </c>
       <c r="F14">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="G14">
-        <v>42.95774647887324</v>
+        <v>64.04109589041096</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>57.04225352112676</v>
+        <v>35.95890410958904</v>
       </c>
       <c r="J14">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1008,31 +993,31 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="E15">
-        <v>93608.46000000001</v>
+        <v>56904.38</v>
       </c>
       <c r="F15">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="G15">
-        <v>42.85714285714285</v>
+        <v>57.36677115987461</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>57.14285714285714</v>
+        <v>42.63322884012539</v>
       </c>
       <c r="J15">
-        <v>280</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1040,31 +1025,31 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="E16">
-        <v>56901.42</v>
+        <v>50005.97</v>
       </c>
       <c r="F16">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="G16">
-        <v>40.55944055944056</v>
+        <v>54.08805031446541</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>59.44055944055944</v>
+        <v>45.91194968553459</v>
       </c>
       <c r="J16">
-        <v>286</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1072,7 +1057,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1081,22 +1066,22 @@
         <v>142</v>
       </c>
       <c r="E17">
-        <v>146741.6</v>
+        <v>61692.49</v>
       </c>
       <c r="F17">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="G17">
-        <v>44.53125</v>
+        <v>54.48717948717948</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>55.46875</v>
+        <v>45.51282051282051</v>
       </c>
       <c r="J17">
-        <v>256</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1104,31 +1089,31 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="E18">
-        <v>140581.46</v>
+        <v>47311.47</v>
       </c>
       <c r="F18">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="G18">
-        <v>43.34600760456274</v>
+        <v>50</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>56.65399239543726</v>
+        <v>50</v>
       </c>
       <c r="J18">
-        <v>263</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1136,31 +1121,31 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E19">
-        <v>54676.33</v>
+        <v>37583.75</v>
       </c>
       <c r="F19">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="G19">
-        <v>40.21352313167259</v>
+        <v>49.84326018808778</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>59.7864768683274</v>
+        <v>50.15673981191222</v>
       </c>
       <c r="J19">
-        <v>281</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1168,31 +1153,31 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="E20">
-        <v>148638.07</v>
+        <v>79851.55</v>
       </c>
       <c r="F20">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="G20">
-        <v>44.26877470355731</v>
+        <v>49.0625</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>55.73122529644269</v>
+        <v>50.9375</v>
       </c>
       <c r="J20">
-        <v>253</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1200,31 +1185,31 @@
         <v>28</v>
       </c>
       <c r="B21">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E21">
-        <v>64093.78</v>
+        <v>48677.43</v>
       </c>
       <c r="F21">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="G21">
-        <v>38.0281690140845</v>
+        <v>42.5</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>61.97183098591549</v>
+        <v>57.49999999999999</v>
       </c>
       <c r="J21">
-        <v>284</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1232,31 +1217,31 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E22">
-        <v>65553.05</v>
+        <v>128730.08</v>
       </c>
       <c r="F22">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="G22">
-        <v>37.06293706293706</v>
+        <v>40.9375</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>62.93706293706294</v>
+        <v>59.06249999999999</v>
       </c>
       <c r="J22">
-        <v>286</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1264,31 +1249,31 @@
         <v>30</v>
       </c>
       <c r="B23">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E23">
-        <v>60495.83</v>
+        <v>104301.6</v>
       </c>
       <c r="F23">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="G23">
-        <v>34.91525423728813</v>
+        <v>39.6875</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>65.08474576271186</v>
+        <v>60.3125</v>
       </c>
       <c r="J23">
-        <v>295</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1296,31 +1281,31 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="E24">
-        <v>58997.76</v>
+        <v>73121.41</v>
       </c>
       <c r="F24">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="G24">
-        <v>36.39575971731448</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>63.60424028268551</v>
+        <v>62.06896551724138</v>
       </c>
       <c r="J24">
-        <v>283</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1328,31 +1313,31 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="E25">
-        <v>51997.26</v>
+        <v>100070.44</v>
       </c>
       <c r="F25">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G25">
-        <v>36.86131386861314</v>
+        <v>33.75</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>63.13868613138686</v>
+        <v>66.25</v>
       </c>
       <c r="J25">
-        <v>274</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1360,31 +1345,31 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="E26">
-        <v>59790.39</v>
+        <v>139328.66</v>
       </c>
       <c r="F26">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G26">
-        <v>35.19163763066202</v>
+        <v>32.8125</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>64.80836236933798</v>
+        <v>67.1875</v>
       </c>
       <c r="J26">
-        <v>287</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1392,31 +1377,31 @@
         <v>34</v>
       </c>
       <c r="B27">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>183</v>
+        <v>257</v>
       </c>
       <c r="E27">
-        <v>79657.64</v>
+        <v>42628.22</v>
       </c>
       <c r="F27">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="G27">
-        <v>35.56338028169014</v>
+        <v>19.6875</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>64.43661971830986</v>
+        <v>80.3125</v>
       </c>
       <c r="J27">
-        <v>284</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1424,31 +1409,31 @@
         <v>35</v>
       </c>
       <c r="B28">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>185</v>
+        <v>246</v>
       </c>
       <c r="E28">
-        <v>116235.13</v>
+        <v>48795.41</v>
       </c>
       <c r="F28">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="G28">
-        <v>34.85915492957746</v>
+        <v>20.12987012987013</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>65.14084507042254</v>
+        <v>79.87012987012987</v>
       </c>
       <c r="J28">
-        <v>284</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1456,31 +1441,31 @@
         <v>36</v>
       </c>
       <c r="B29">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>120</v>
+        <v>257</v>
       </c>
       <c r="E29">
-        <v>191366.56</v>
+        <v>45728.87</v>
       </c>
       <c r="F29">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G29">
-        <v>36.84210526315789</v>
+        <v>16.55844155844156</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>63.1578947368421</v>
+        <v>83.44155844155844</v>
       </c>
       <c r="J29">
-        <v>190</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1488,31 +1473,31 @@
         <v>37</v>
       </c>
       <c r="B30">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>81</v>
+        <v>273</v>
       </c>
       <c r="E30">
-        <v>183610.22</v>
+        <v>78648.5</v>
       </c>
       <c r="F30">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G30">
-        <v>37.69230769230769</v>
+        <v>14.15094339622642</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>62.30769230769231</v>
+        <v>85.84905660377359</v>
       </c>
       <c r="J30">
-        <v>130</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1526,25 +1511,25 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>94</v>
+        <v>291</v>
       </c>
       <c r="E31">
-        <v>176900.45</v>
+        <v>68926.31</v>
       </c>
       <c r="F31">
         <v>29</v>
       </c>
       <c r="G31">
-        <v>23.57723577235772</v>
+        <v>9.0625</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>76.42276422764228</v>
+        <v>90.9375</v>
       </c>
       <c r="J31">
-        <v>123</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1552,31 +1537,31 @@
         <v>39</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>292</v>
       </c>
       <c r="E32">
-        <v>247558.79</v>
+        <v>50349.5</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>8.463949843260188</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>100</v>
+        <v>91.53605015673982</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1584,31 +1569,31 @@
         <v>40</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>21</v>
+        <v>301</v>
       </c>
       <c r="E33">
-        <v>218827.34</v>
+        <v>58243.74</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>5.047318611987381</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>100</v>
+        <v>94.95268138801262</v>
       </c>
       <c r="J33">
-        <v>21</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -1733,94 +1718,94 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
         <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -1834,94 +1819,94 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -1929,16 +1914,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
         <v>45</v>
@@ -1953,76 +1938,76 @@
         <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
         <v>45</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X4" t="s">
         <v>45</v>
       </c>
       <c r="Y4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -2030,16 +2015,16 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -2054,76 +2039,76 @@
         <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N5" t="s">
         <v>45</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X5" t="s">
         <v>45</v>
       </c>
       <c r="Y5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -2131,58 +2116,58 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T6" t="s">
         <v>45</v>
@@ -2194,10 +2179,10 @@
         <v>45</v>
       </c>
       <c r="W6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y6" t="s">
         <v>45</v>
@@ -2206,25 +2191,25 @@
         <v>45</v>
       </c>
       <c r="AA6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -2232,79 +2217,79 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
         <v>48</v>
       </c>
       <c r="O7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="R7" t="s">
         <v>46</v>
       </c>
       <c r="S7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="T7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="V7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="W7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Z7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA7" t="s">
         <v>46</v>
@@ -2316,16 +2301,16 @@
         <v>46</v>
       </c>
       <c r="AD7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="AE7" t="s">
         <v>46</v>
       </c>
       <c r="AF7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -2333,79 +2318,79 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="N8" t="s">
         <v>48</v>
       </c>
       <c r="O8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="R8" t="s">
         <v>46</v>
       </c>
       <c r="S8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="T8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="V8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="W8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Z8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA8" t="s">
         <v>46</v>
@@ -2417,16 +2402,16 @@
         <v>46</v>
       </c>
       <c r="AD8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE8" t="s">
         <v>46</v>
       </c>
       <c r="AF8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -2434,100 +2419,100 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="O9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="R9" t="s">
         <v>46</v>
       </c>
       <c r="S9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="W9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Z9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB9" t="s">
         <v>46</v>
       </c>
       <c r="AC9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AD9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AE9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -2535,19 +2520,19 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2556,37 +2541,37 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="O10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q10" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="R10" t="s">
         <v>46</v>
       </c>
       <c r="S10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T10" t="s">
         <v>46</v>
@@ -2595,40 +2580,40 @@
         <v>46</v>
       </c>
       <c r="V10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="W10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Z10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="AC10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AD10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -2636,52 +2621,52 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O11" t="s">
         <v>45</v>
       </c>
       <c r="P11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R11" t="s">
         <v>45</v>
@@ -2696,40 +2681,40 @@
         <v>45</v>
       </c>
       <c r="V11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X11" t="s">
         <v>45</v>
       </c>
       <c r="Y11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -2737,52 +2722,52 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O12" t="s">
         <v>45</v>
       </c>
       <c r="P12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R12" t="s">
         <v>45</v>
@@ -2797,40 +2782,40 @@
         <v>45</v>
       </c>
       <c r="V12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X12" t="s">
         <v>45</v>
       </c>
       <c r="Y12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -2838,100 +2823,100 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="S13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="T13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="U13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="W13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="X13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Y13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Z13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AA13" t="s">
         <v>46</v>
       </c>
       <c r="AB13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AC13" t="s">
         <v>46</v>
       </c>
       <c r="AD13" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="AE13" t="s">
         <v>46</v>
       </c>
       <c r="AF13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -2939,100 +2924,100 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="O14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="V14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Y14" t="s">
         <v>46</v>
       </c>
       <c r="Z14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA14" t="s">
         <v>46</v>
       </c>
       <c r="AB14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AC14" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AD14" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="AE14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AF14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG14" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -3040,100 +3025,100 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J15" t="s">
         <v>43</v>
       </c>
       <c r="K15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N15" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="O15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q15" t="s">
         <v>42</v>
       </c>
       <c r="R15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Y15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Z15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AA15" t="s">
         <v>46</v>
       </c>
       <c r="AB15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AD15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AF15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -3141,76 +3126,76 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="O16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R16" t="s">
         <v>45</v>
       </c>
       <c r="S16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W16" t="s">
         <v>46</v>
       </c>
       <c r="X16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Y16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z16" t="s">
         <v>42</v>
@@ -3219,22 +3204,22 @@
         <v>46</v>
       </c>
       <c r="AB16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AC16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AD16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AE16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -3242,100 +3227,100 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q17" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="R17" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="S17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U17" t="s">
         <v>42</v>
       </c>
       <c r="V17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Y17" t="s">
         <v>46</v>
       </c>
       <c r="Z17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA17" t="s">
         <v>46</v>
       </c>
       <c r="AB17" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="AC17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AD17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:33">
@@ -3343,100 +3328,100 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J18" t="s">
         <v>42</v>
       </c>
       <c r="K18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="O18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="P18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S18" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="T18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V18" t="s">
         <v>46</v>
       </c>
       <c r="W18" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="X18" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Y18" t="s">
         <v>46</v>
       </c>
       <c r="Z18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AA18" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AB18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -3444,100 +3429,100 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J19" t="s">
         <v>42</v>
       </c>
       <c r="K19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O19" t="s">
         <v>42</v>
       </c>
       <c r="P19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q19" t="s">
         <v>42</v>
       </c>
       <c r="R19" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="S19" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="T19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="U19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V19" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W19" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="X19" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Y19" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Z19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AA19" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AB19" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AC19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AD19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AE19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -3545,100 +3530,100 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
         <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s">
         <v>42</v>
       </c>
       <c r="K20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="O20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="P20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R20" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="S20" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="T20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Y20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AA20" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AB20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AD20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:33">
@@ -3658,13 +3643,13 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I21" t="s">
         <v>43</v>
@@ -3673,73 +3658,73 @@
         <v>43</v>
       </c>
       <c r="K21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M21" t="s">
         <v>42</v>
       </c>
       <c r="N21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="O21" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="P21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="R21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T21" t="s">
         <v>42</v>
       </c>
       <c r="U21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="V21" t="s">
         <v>42</v>
       </c>
       <c r="W21" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="X21" t="s">
         <v>42</v>
       </c>
       <c r="Y21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Z21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AC21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AD21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AE21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:33">
@@ -3747,100 +3732,100 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
         <v>41</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S22" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="T22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W22" t="s">
         <v>42</v>
       </c>
       <c r="X22" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="Y22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AA22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AB22" t="s">
         <v>46</v>
       </c>
       <c r="AC22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AD22" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="AE22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AF22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:33">
@@ -3848,19 +3833,19 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
         <v>43</v>
@@ -3869,79 +3854,79 @@
         <v>43</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N23" t="s">
         <v>43</v>
       </c>
       <c r="O23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P23" t="s">
         <v>42</v>
       </c>
       <c r="Q23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S23" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="T23" t="s">
         <v>41</v>
       </c>
       <c r="U23" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="V23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AD23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AE23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:33">
@@ -3949,55 +3934,55 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
         <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M24" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S24" t="s">
         <v>43</v>
@@ -4006,43 +3991,43 @@
         <v>42</v>
       </c>
       <c r="U24" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="V24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="W24" t="s">
         <v>42</v>
       </c>
       <c r="X24" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Y24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AA24" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AB24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AD24" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AE24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:33">
@@ -4050,19 +4035,19 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s">
         <v>43</v>
@@ -4071,79 +4056,79 @@
         <v>43</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S25" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="T25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U25" t="s">
         <v>43</v>
       </c>
       <c r="V25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W25" t="s">
         <v>42</v>
       </c>
       <c r="X25" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Y25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA25" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AB25" t="s">
         <v>46</v>
       </c>
       <c r="AC25" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AD25" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="AE25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:33">
@@ -4151,100 +4136,100 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M26" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O26" t="s">
         <v>41</v>
       </c>
       <c r="P26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="R26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T26" t="s">
         <v>42</v>
       </c>
       <c r="U26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="V26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Y26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB26" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AC26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AD26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -4252,40 +4237,40 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
         <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s">
         <v>41</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N27" t="s">
         <v>43</v>
@@ -4294,58 +4279,58 @@
         <v>43</v>
       </c>
       <c r="P27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q27" t="s">
         <v>43</v>
       </c>
       <c r="R27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S27" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="T27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U27" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="V27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="W27" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="X27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z27" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AA27" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AB27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AD27" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="AE27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:33">
@@ -4353,49 +4338,49 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M28" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q28" t="s">
         <v>41</v>
@@ -4407,19 +4392,19 @@
         <v>42</v>
       </c>
       <c r="T28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="V28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="X28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="Y28" t="s">
         <v>43</v>
@@ -4428,25 +4413,25 @@
         <v>42</v>
       </c>
       <c r="AA28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AD28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:33">
@@ -4454,100 +4439,100 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="L29" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="T29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U29" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="V29" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="W29" t="s">
         <v>46</v>
       </c>
       <c r="X29" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="Y29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z29" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AA29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AC29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:33">
@@ -4555,100 +4540,100 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K30" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="L30" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M30" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q30" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="R30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V30" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="W30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="X30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y30" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="Z30" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="AA30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AB30" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="AC30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AD30" t="s">
         <v>44</v>
       </c>
       <c r="AE30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:33">
@@ -4656,100 +4641,100 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U31" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="V31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AC31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AD31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AE31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF31" t="s">
         <v>44</v>
       </c>
       <c r="AG31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:33">
@@ -4757,100 +4742,100 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M32" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N32" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AD32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AE32" t="s">
         <v>44</v>
       </c>
       <c r="AF32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:33">
@@ -4858,100 +4843,100 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N33" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="O33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AE33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AG33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/results_processing/hex_results.xlsx
+++ b/results_processing/hex_results.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patryk/Repositories/Enriching-the-Monte-Carlo-Tree-Search-Algorithm/results_processing/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDEBE7B-3A7C-5442-AD3E-8B74B2CECD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result_df" sheetId="1" r:id="rId1"/>
     <sheet name="df_tournament" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="56">
   <si>
     <t>wins</t>
   </si>
@@ -180,13 +186,16 @@
   </si>
   <si>
     <t>3-0-0</t>
+  </si>
+  <si>
+    <t>mctsrave10000_v2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,12 +212,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -238,24 +253,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -293,9 +319,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,9 +353,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,9 +405,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -536,14 +598,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="99.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,8 +639,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2">
@@ -604,8 +671,8 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3">
@@ -618,7 +685,7 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>72103.78999999999</v>
+        <v>72103.789999999994</v>
       </c>
       <c r="F3">
         <v>299</v>
@@ -636,7 +703,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -668,7 +735,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -700,8 +767,8 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6">
@@ -714,25 +781,25 @@
         <v>88</v>
       </c>
       <c r="E6">
-        <v>43306.72</v>
+        <v>43306.720000000001</v>
       </c>
       <c r="F6">
         <v>229</v>
       </c>
       <c r="G6">
-        <v>72.2397476340694</v>
+        <v>72.239747634069403</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>27.7602523659306</v>
+        <v>27.760252365930601</v>
       </c>
       <c r="J6">
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -752,19 +819,19 @@
         <v>229</v>
       </c>
       <c r="G7">
-        <v>72.2397476340694</v>
+        <v>72.239747634069403</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.7602523659306</v>
+        <v>27.760252365930601</v>
       </c>
       <c r="J7">
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -784,19 +851,19 @@
         <v>229</v>
       </c>
       <c r="G8">
-        <v>72.2397476340694</v>
+        <v>72.239747634069403</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>27.7602523659306</v>
+        <v>27.760252365930601</v>
       </c>
       <c r="J8">
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -816,20 +883,20 @@
         <v>229</v>
       </c>
       <c r="G9">
-        <v>72.0125786163522</v>
+        <v>72.012578616352201</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.9874213836478</v>
+        <v>27.987421383647799</v>
       </c>
       <c r="J9">
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10">
@@ -860,7 +927,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -880,7 +947,7 @@
         <v>204</v>
       </c>
       <c r="G11">
-        <v>63.74999999999999</v>
+        <v>63.749999999999993</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -892,7 +959,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -912,7 +979,7 @@
         <v>204</v>
       </c>
       <c r="G12">
-        <v>63.74999999999999</v>
+        <v>63.749999999999993</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,7 +991,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -944,7 +1011,7 @@
         <v>194</v>
       </c>
       <c r="G13">
-        <v>60.62499999999999</v>
+        <v>60.624999999999993</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -956,8 +1023,8 @@
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14">
@@ -976,19 +1043,19 @@
         <v>187</v>
       </c>
       <c r="G14">
-        <v>64.04109589041096</v>
+        <v>64.041095890410958</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>35.95890410958904</v>
+        <v>35.958904109589042</v>
       </c>
       <c r="J14">
         <v>292</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1020,8 +1087,8 @@
         <v>319</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16">
@@ -1040,19 +1107,19 @@
         <v>172</v>
       </c>
       <c r="G16">
-        <v>54.08805031446541</v>
+        <v>54.088050314465413</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>45.91194968553459</v>
+        <v>45.911949685534587</v>
       </c>
       <c r="J16">
         <v>318</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1072,19 +1139,19 @@
         <v>170</v>
       </c>
       <c r="G17">
-        <v>54.48717948717948</v>
+        <v>54.487179487179482</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>45.51282051282051</v>
+        <v>45.512820512820511</v>
       </c>
       <c r="J17">
         <v>312</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -1116,7 +1183,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -1136,19 +1203,19 @@
         <v>159</v>
       </c>
       <c r="G19">
-        <v>49.84326018808778</v>
+        <v>49.843260188087783</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>50.15673981191222</v>
+        <v>50.156739811912217</v>
       </c>
       <c r="J19">
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -1180,7 +1247,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -1206,13 +1273,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>57.49999999999999</v>
+        <v>57.499999999999993</v>
       </c>
       <c r="J21">
         <v>320</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -1238,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>59.06249999999999</v>
+        <v>59.062499999999993</v>
       </c>
       <c r="J22">
         <v>320</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -1276,7 +1343,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -1296,19 +1363,19 @@
         <v>121</v>
       </c>
       <c r="G24">
-        <v>37.93103448275862</v>
+        <v>37.931034482758619</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>62.06896551724138</v>
+        <v>62.068965517241381</v>
       </c>
       <c r="J24">
         <v>319</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -1340,7 +1407,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
@@ -1372,8 +1439,8 @@
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B27">
@@ -1404,7 +1471,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
@@ -1424,19 +1491,19 @@
         <v>62</v>
       </c>
       <c r="G28">
-        <v>20.12987012987013</v>
+        <v>20.129870129870131</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>79.87012987012987</v>
+        <v>79.870129870129873</v>
       </c>
       <c r="J28">
         <v>308</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
@@ -1456,20 +1523,20 @@
         <v>51</v>
       </c>
       <c r="G29">
-        <v>16.55844155844156</v>
+        <v>16.558441558441562</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>83.44155844155844</v>
+        <v>83.441558441558442</v>
       </c>
       <c r="J29">
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B30">
@@ -1500,7 +1567,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -1532,7 +1599,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
@@ -1552,19 +1619,19 @@
         <v>27</v>
       </c>
       <c r="G32">
-        <v>8.463949843260188</v>
+        <v>8.4639498432601883</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>91.53605015673982</v>
+        <v>91.536050156739819</v>
       </c>
       <c r="J32">
         <v>319</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
@@ -1584,16 +1651,21 @@
         <v>16</v>
       </c>
       <c r="G33">
-        <v>5.047318611987381</v>
+        <v>5.0473186119873814</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>94.95268138801262</v>
+        <v>94.952681388012621</v>
       </c>
       <c r="J33">
         <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1602,14 +1674,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1707,7 +1779,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1808,7 +1880,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1909,7 +1981,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2010,7 +2082,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -2111,7 +2183,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2212,7 +2284,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -2313,7 +2385,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -2414,7 +2486,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2515,7 +2587,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -2616,7 +2688,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2717,7 +2789,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -2818,7 +2890,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -2919,7 +2991,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -3020,7 +3092,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -3121,7 +3193,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -3222,7 +3294,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -3323,7 +3395,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -3424,7 +3496,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -3525,7 +3597,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -3626,7 +3698,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -3727,7 +3799,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -3828,7 +3900,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -3929,7 +4001,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -4030,7 +4102,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -4131,7 +4203,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
@@ -4232,7 +4304,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -4333,7 +4405,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
@@ -4434,7 +4506,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
@@ -4535,7 +4607,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
@@ -4636,7 +4708,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -4737,7 +4809,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
@@ -4838,7 +4910,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>

--- a/results_processing/hex_results.xlsx
+++ b/results_processing/hex_results.xlsx
@@ -9,13 +9,15 @@
   <sheets>
     <sheet name="result_df" sheetId="1" r:id="rId1"/>
     <sheet name="df_tournament" sheetId="2" r:id="rId2"/>
+    <sheet name="df_agg_by_player" sheetId="3" r:id="rId3"/>
+    <sheet name="df_agg_by_player_winner" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="84">
   <si>
     <t>wins</t>
   </si>
@@ -50,13 +52,19 @@
     <t>mctsstrategies10000(random_strategy:mobility_strategy_vs:mobility_strategy:evaluatehex_strategy)</t>
   </si>
   <si>
+    <t>mctsstrategies10000(mobility_strategy_vs:mobility_strategy:evaluatehex_strategy)</t>
+  </si>
+  <si>
+    <t>mctsstrategy10000(mobility_strategy)</t>
+  </si>
+  <si>
     <t>alphabeta10</t>
   </si>
   <si>
     <t>alphabeta12</t>
   </si>
   <si>
-    <t>mctsstrategy10000(mobility_strategy)</t>
+    <t>mctsstrategy10000(evaluatehex_strategy)</t>
   </si>
   <si>
     <t>mctsstrategy10000(mobility_strategy_vs)</t>
@@ -74,37 +82,193 @@
     <t>mctsrave10000</t>
   </si>
   <si>
-    <t>3-0-7</t>
-  </si>
-  <si>
-    <t>1-0-9</t>
-  </si>
-  <si>
-    <t>5-0-5</t>
-  </si>
-  <si>
-    <t>0-0-10</t>
-  </si>
-  <si>
-    <t>9-0-1</t>
-  </si>
-  <si>
-    <t>6-0-4</t>
-  </si>
-  <si>
-    <t>4-0-6</t>
-  </si>
-  <si>
-    <t>10-0-0</t>
-  </si>
-  <si>
-    <t>2-0-8</t>
-  </si>
-  <si>
-    <t>0-0-9</t>
-  </si>
-  <si>
-    <t>8-0-2</t>
+    <t>14-0-36</t>
+  </si>
+  <si>
+    <t>9-0-41</t>
+  </si>
+  <si>
+    <t>3-0-47</t>
+  </si>
+  <si>
+    <t>1-0-49</t>
+  </si>
+  <si>
+    <t>23-0-27</t>
+  </si>
+  <si>
+    <t>0-0-50</t>
+  </si>
+  <si>
+    <t>35-0-15</t>
+  </si>
+  <si>
+    <t>24-0-26</t>
+  </si>
+  <si>
+    <t>14-0-35</t>
+  </si>
+  <si>
+    <t>31-0-19</t>
+  </si>
+  <si>
+    <t>4-0-46</t>
+  </si>
+  <si>
+    <t>46-0-4</t>
+  </si>
+  <si>
+    <t>33-0-17</t>
+  </si>
+  <si>
+    <t>26-0-24</t>
+  </si>
+  <si>
+    <t>25-0-25</t>
+  </si>
+  <si>
+    <t>6-0-44</t>
+  </si>
+  <si>
+    <t>48-0-2</t>
+  </si>
+  <si>
+    <t>41-0-9</t>
+  </si>
+  <si>
+    <t>18-0-32</t>
+  </si>
+  <si>
+    <t>12-0-38</t>
+  </si>
+  <si>
+    <t>13-0-37</t>
+  </si>
+  <si>
+    <t>50-0-0</t>
+  </si>
+  <si>
+    <t>0-0-47</t>
+  </si>
+  <si>
+    <t>36-0-14</t>
+  </si>
+  <si>
+    <t>34-0-16</t>
+  </si>
+  <si>
+    <t>2-0-48</t>
+  </si>
+  <si>
+    <t>43-0-7</t>
+  </si>
+  <si>
+    <t>21-0-29</t>
+  </si>
+  <si>
+    <t>16-0-34</t>
+  </si>
+  <si>
+    <t>8-0-42</t>
+  </si>
+  <si>
+    <t>0-0-49</t>
+  </si>
+  <si>
+    <t>0-0-46</t>
+  </si>
+  <si>
+    <t>49-0-1</t>
+  </si>
+  <si>
+    <t>47-0-3</t>
+  </si>
+  <si>
+    <t>19-0-31</t>
+  </si>
+  <si>
+    <t>11-0-39</t>
+  </si>
+  <si>
+    <t>49-0-0</t>
+  </si>
+  <si>
+    <t>38-0-12</t>
+  </si>
+  <si>
+    <t>29-0-21</t>
+  </si>
+  <si>
+    <t>win_games_count</t>
+  </si>
+  <si>
+    <t>all_games_count</t>
+  </si>
+  <si>
+    <t>mean_player_moves</t>
+  </si>
+  <si>
+    <t>mean_opponent_moves</t>
+  </si>
+  <si>
+    <t>mean_of_all_diff_after_player_moves</t>
+  </si>
+  <si>
+    <t>mean_of_means_of_each_game_diff_after_player_moves</t>
+  </si>
+  <si>
+    <t>mean_of_all_diff_after_opponent_moves</t>
+  </si>
+  <si>
+    <t>mean_of_means_of_each_game_diff_after_oponent_moves</t>
+  </si>
+  <si>
+    <t>mean_nonnegative_sequences_lenght</t>
+  </si>
+  <si>
+    <t>mean_nonpositive_sequences_lenght</t>
+  </si>
+  <si>
+    <t>mean_count_nonnegative_sequences</t>
+  </si>
+  <si>
+    <t>count_games_with_none_nonnegative_sequences</t>
+  </si>
+  <si>
+    <t>mean_count_nonpositive_sequences</t>
+  </si>
+  <si>
+    <t>count_games_with_none_nonpositive_sequences</t>
+  </si>
+  <si>
+    <t>player_switching_stats</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[3472.2066313874648, 3550.275095088474, 2977.5182735240614]</t>
+  </si>
+  <si>
+    <t>[1508.9615975422428, 2896.4910074244754, 3075.2565604198667, 2519.2908346134154]</t>
+  </si>
+  <si>
+    <t>is_winner</t>
+  </si>
+  <si>
+    <t>[3484.041630052724, 3470.721770650264, 3045.236599297012]</t>
+  </si>
+  <si>
+    <t>[3468.242181175951, 3576.923614688351, 2954.834204135698]</t>
+  </si>
+  <si>
+    <t>[984.5730613425926, 3109.6339699074074, 3097.5319733796296, 2808.2609953703704]</t>
+  </si>
+  <si>
+    <t>[1657.9003533859302, 2835.9533612754767, 3068.929815910585, 2437.2164694280077]</t>
   </si>
 </sst>
 </file>
@@ -462,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,31 +666,31 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>177</v>
+        <v>1061</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="E2">
-        <v>16486.09</v>
+        <v>17473.9</v>
       </c>
       <c r="F2">
-        <v>177</v>
+        <v>1061</v>
       </c>
       <c r="G2">
-        <v>88.5</v>
+        <v>88.41666666666667</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11.5</v>
+        <v>11.58333333333333</v>
       </c>
       <c r="J2">
-        <v>200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -534,31 +698,31 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>145</v>
+        <v>872</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="E3">
-        <v>66643.05</v>
+        <v>63083.14</v>
       </c>
       <c r="F3">
-        <v>145</v>
+        <v>872</v>
       </c>
       <c r="G3">
-        <v>72.5</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>27.5</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="J3">
-        <v>200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -566,31 +730,31 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>132</v>
+        <v>776</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>68</v>
+        <v>423</v>
       </c>
       <c r="E4">
-        <v>23557.72</v>
+        <v>79027.38</v>
       </c>
       <c r="F4">
-        <v>132</v>
+        <v>776</v>
       </c>
       <c r="G4">
-        <v>66</v>
+        <v>64.72060050041702</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>34</v>
+        <v>35.27939949958299</v>
       </c>
       <c r="J4">
-        <v>200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -598,31 +762,31 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>132</v>
+        <v>776</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>68</v>
+        <v>424</v>
       </c>
       <c r="E5">
-        <v>22688.47</v>
+        <v>65173.58</v>
       </c>
       <c r="F5">
-        <v>132</v>
+        <v>776</v>
       </c>
       <c r="G5">
-        <v>66</v>
+        <v>64.66666666666666</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>34</v>
+        <v>35.33333333333334</v>
       </c>
       <c r="J5">
-        <v>200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -630,31 +794,31 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>131</v>
+        <v>774</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>69</v>
+        <v>423</v>
       </c>
       <c r="E6">
-        <v>71138.39999999999</v>
+        <v>23556.03</v>
       </c>
       <c r="F6">
-        <v>131</v>
+        <v>774</v>
       </c>
       <c r="G6">
-        <v>65.5</v>
+        <v>64.66165413533834</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>34.5</v>
+        <v>35.33834586466165</v>
       </c>
       <c r="J6">
-        <v>200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -662,31 +826,31 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>108</v>
+        <v>774</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>91</v>
+        <v>423</v>
       </c>
       <c r="E7">
-        <v>113331.81</v>
+        <v>24678.5</v>
       </c>
       <c r="F7">
-        <v>108</v>
+        <v>774</v>
       </c>
       <c r="G7">
-        <v>54.2713567839196</v>
+        <v>64.66165413533834</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>45.7286432160804</v>
+        <v>35.33834586466165</v>
       </c>
       <c r="J7">
-        <v>199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -694,31 +858,31 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>84</v>
+        <v>629</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>116</v>
+        <v>571</v>
       </c>
       <c r="E8">
-        <v>22603.79</v>
+        <v>46420.65</v>
       </c>
       <c r="F8">
-        <v>84</v>
+        <v>629</v>
       </c>
       <c r="G8">
-        <v>42</v>
+        <v>52.41666666666666</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>57.99999999999999</v>
+        <v>47.58333333333334</v>
       </c>
       <c r="J8">
-        <v>200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -726,31 +890,31 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>49</v>
+        <v>616</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>151</v>
+        <v>572</v>
       </c>
       <c r="E9">
-        <v>24430.93</v>
+        <v>112798.93</v>
       </c>
       <c r="F9">
-        <v>49</v>
+        <v>616</v>
       </c>
       <c r="G9">
-        <v>24.5</v>
+        <v>51.85185185185185</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>75.5</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="J9">
-        <v>200</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -758,31 +922,31 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>29</v>
+        <v>445</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>171</v>
+        <v>755</v>
       </c>
       <c r="E10">
-        <v>32579.81</v>
+        <v>24078.8</v>
       </c>
       <c r="F10">
-        <v>29</v>
+        <v>445</v>
       </c>
       <c r="G10">
-        <v>14.5</v>
+        <v>37.08333333333334</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>85.5</v>
+        <v>62.91666666666666</v>
       </c>
       <c r="J10">
-        <v>200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -790,31 +954,95 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>187</v>
+        <v>942</v>
       </c>
       <c r="E11">
-        <v>33010.6</v>
+        <v>26992.42</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="G11">
-        <v>6.030150753768844</v>
+        <v>21.5</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>93.96984924623115</v>
+        <v>78.5</v>
       </c>
       <c r="J11">
-        <v>199</v>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>144</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1055</v>
+      </c>
+      <c r="E12">
+        <v>35443.55</v>
+      </c>
+      <c r="F12">
+        <v>144</v>
+      </c>
+      <c r="G12">
+        <v>12.01000834028357</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>87.98999165971642</v>
+      </c>
+      <c r="J12">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>62</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1133</v>
+      </c>
+      <c r="E13">
+        <v>39038.96</v>
+      </c>
+      <c r="F13">
+        <v>62</v>
+      </c>
+      <c r="G13">
+        <v>5.188284518828452</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>94.81171548117155</v>
+      </c>
+      <c r="J13">
+        <v>1195</v>
       </c>
     </row>
   </sheetData>
@@ -824,13 +1052,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
@@ -861,358 +1089,2497 @@
       <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>42</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>42</v>
+      </c>
+      <c r="L5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>42</v>
+      </c>
+      <c r="L6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>42</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>42</v>
+      </c>
+      <c r="L8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>42</v>
+      </c>
+      <c r="L9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>42</v>
+      </c>
+      <c r="L10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
+        <v>55</v>
+      </c>
+      <c r="L11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>774</v>
+      </c>
+      <c r="C2">
+        <v>1197</v>
+      </c>
+      <c r="D2">
+        <v>30.578111946533</v>
+      </c>
+      <c r="E2">
+        <v>30.43024227234753</v>
+      </c>
+      <c r="F2">
+        <v>0.2890269735913006</v>
+      </c>
+      <c r="G2">
+        <v>0.4394976301010179</v>
+      </c>
+      <c r="H2">
+        <v>0.2425343476779834</v>
+      </c>
+      <c r="I2">
+        <v>0.2803933221889209</v>
+      </c>
+      <c r="J2">
+        <v>17.69459623557984</v>
+      </c>
+      <c r="K2">
+        <v>8.885714285714286</v>
+      </c>
+      <c r="L2">
+        <v>1.37593984962406</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="O2">
+        <v>750</v>
+      </c>
+      <c r="P2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>774</v>
+      </c>
+      <c r="C3">
+        <v>1197</v>
+      </c>
+      <c r="D3">
+        <v>30.578111946533</v>
+      </c>
+      <c r="E3">
+        <v>30.43024227234753</v>
+      </c>
+      <c r="F3">
+        <v>0.2890269735913006</v>
+      </c>
+      <c r="G3">
+        <v>0.4394976301010195</v>
+      </c>
+      <c r="H3">
+        <v>0.2425343476779834</v>
+      </c>
+      <c r="I3">
+        <v>0.2803933221889225</v>
+      </c>
+      <c r="J3">
+        <v>17.69459623557984</v>
+      </c>
+      <c r="K3">
+        <v>8.885714285714286</v>
+      </c>
+      <c r="L3">
+        <v>1.37593984962406</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="O3">
+        <v>750</v>
+      </c>
+      <c r="P3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>445</v>
+      </c>
+      <c r="C4">
+        <v>1200</v>
+      </c>
+      <c r="D4">
+        <v>16.7575</v>
+      </c>
+      <c r="E4">
+        <v>16.88666666666667</v>
+      </c>
+      <c r="F4">
+        <v>0.5111851499286054</v>
+      </c>
+      <c r="G4">
+        <v>0.5892885426188881</v>
+      </c>
+      <c r="H4">
+        <v>0.4385228703315149</v>
+      </c>
+      <c r="I4">
+        <v>0.4136857104453054</v>
+      </c>
+      <c r="J4">
+        <v>6.123739332816137</v>
+      </c>
+      <c r="K4">
+        <v>1.317123287671233</v>
+      </c>
+      <c r="L4">
+        <v>2.148333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1.216666666666667</v>
+      </c>
+      <c r="O4">
+        <v>720</v>
+      </c>
+      <c r="P4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1061</v>
+      </c>
+      <c r="C5">
+        <v>1200</v>
+      </c>
+      <c r="D5">
+        <v>20.785</v>
+      </c>
+      <c r="E5">
+        <v>20.40083333333333</v>
+      </c>
+      <c r="F5">
+        <v>0.47022154831101</v>
+      </c>
+      <c r="G5">
+        <v>0.5026608718888759</v>
+      </c>
+      <c r="H5">
+        <v>0.1579829045144109</v>
+      </c>
+      <c r="I5">
+        <v>0.1768567343463757</v>
+      </c>
+      <c r="J5">
+        <v>11.38832891246684</v>
+      </c>
+      <c r="K5">
+        <v>1.714859437751004</v>
+      </c>
+      <c r="L5">
+        <v>1.570833333333333</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.6225000000000001</v>
+      </c>
+      <c r="O5">
+        <v>764</v>
+      </c>
+      <c r="P5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>62</v>
+      </c>
+      <c r="C6">
+        <v>1195</v>
+      </c>
+      <c r="D6">
+        <v>40.65523012552301</v>
+      </c>
+      <c r="E6">
+        <v>41.10460251046025</v>
+      </c>
+      <c r="F6">
+        <v>0.07438592048619903</v>
+      </c>
+      <c r="G6">
+        <v>0.06316984896282841</v>
+      </c>
+      <c r="H6">
+        <v>0.2476160667709963</v>
+      </c>
+      <c r="I6">
+        <v>0.3563070249511869</v>
+      </c>
+      <c r="J6">
+        <v>15.96899583526145</v>
+      </c>
+      <c r="K6">
+        <v>6.118093922651934</v>
+      </c>
+      <c r="L6">
+        <v>1.80836820083682</v>
+      </c>
+      <c r="M6">
+        <v>67</v>
+      </c>
+      <c r="N6">
+        <v>1.211715481171548</v>
+      </c>
+      <c r="O6">
+        <v>359</v>
+      </c>
+      <c r="P6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>144</v>
+      </c>
+      <c r="C7">
+        <v>1199</v>
+      </c>
+      <c r="D7">
+        <v>40.72643869891576</v>
+      </c>
+      <c r="E7">
+        <v>41.10675562969141</v>
+      </c>
+      <c r="F7">
+        <v>0.1082045683574068</v>
+      </c>
+      <c r="G7">
+        <v>0.09908579731588446</v>
+      </c>
+      <c r="H7">
+        <v>0.2412868075195475</v>
+      </c>
+      <c r="I7">
+        <v>0.3510943272286144</v>
+      </c>
+      <c r="J7">
+        <v>18.99661016949153</v>
+      </c>
+      <c r="K7">
+        <v>5.107377049180328</v>
+      </c>
+      <c r="L7">
+        <v>1.722268557130942</v>
+      </c>
+      <c r="M7">
+        <v>20</v>
+      </c>
+      <c r="N7">
+        <v>1.017514595496247</v>
+      </c>
+      <c r="O7">
+        <v>444</v>
+      </c>
+      <c r="P7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>776</v>
+      </c>
+      <c r="C8">
+        <v>1199</v>
+      </c>
+      <c r="D8">
+        <v>30.26021684737281</v>
+      </c>
+      <c r="E8">
+        <v>30.11342785654712</v>
+      </c>
+      <c r="F8">
+        <v>0.2748624690020808</v>
+      </c>
+      <c r="G8">
+        <v>0.2984319193051805</v>
+      </c>
+      <c r="H8">
+        <v>0.2284642048872719</v>
+      </c>
+      <c r="I8">
+        <v>0.3097190270259466</v>
+      </c>
+      <c r="J8">
+        <v>13.23326403326403</v>
+      </c>
+      <c r="K8">
+        <v>2.111111111111111</v>
+      </c>
+      <c r="L8">
+        <v>2.005838198498749</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1.125938281901585</v>
+      </c>
+      <c r="O8">
+        <v>558</v>
+      </c>
+      <c r="P8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>872</v>
+      </c>
+      <c r="C9">
+        <v>1199</v>
+      </c>
+      <c r="D9">
+        <v>26.06171809841535</v>
+      </c>
+      <c r="E9">
+        <v>25.83402835696414</v>
+      </c>
+      <c r="F9">
+        <v>0.3402442676960964</v>
+      </c>
+      <c r="G9">
+        <v>0.3725720158430137</v>
+      </c>
+      <c r="H9">
+        <v>0.2151732939279957</v>
+      </c>
+      <c r="I9">
+        <v>0.2705165152472362</v>
+      </c>
+      <c r="J9">
+        <v>11.97628458498024</v>
+      </c>
+      <c r="K9">
+        <v>2.032312925170068</v>
+      </c>
+      <c r="L9">
+        <v>1.899082568807339</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.9808173477898249</v>
+      </c>
+      <c r="O9">
+        <v>645</v>
+      </c>
+      <c r="P9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>629</v>
+      </c>
+      <c r="C10">
+        <v>1200</v>
+      </c>
+      <c r="D10">
+        <v>33.58416666666667</v>
+      </c>
+      <c r="E10">
+        <v>33.56</v>
+      </c>
+      <c r="F10">
+        <v>0.224393238024603</v>
+      </c>
+      <c r="G10">
+        <v>0.2509365798166283</v>
+      </c>
+      <c r="H10">
+        <v>0.2350020475020475</v>
+      </c>
+      <c r="I10">
+        <v>0.3165056703435249</v>
+      </c>
+      <c r="J10">
+        <v>13.02118804388952</v>
+      </c>
+      <c r="K10">
+        <v>2.526284701712936</v>
+      </c>
+      <c r="L10">
+        <v>2.2025</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1.410833333333333</v>
+      </c>
+      <c r="O10">
+        <v>489</v>
+      </c>
+      <c r="P10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>776</v>
+      </c>
+      <c r="C11">
+        <v>1200</v>
+      </c>
+      <c r="D11">
+        <v>33.10666666666667</v>
+      </c>
+      <c r="E11">
+        <v>32.96</v>
+      </c>
+      <c r="F11">
+        <v>0.2552429401993355</v>
+      </c>
+      <c r="G11">
+        <v>0.2734392334978483</v>
+      </c>
+      <c r="H11">
+        <v>0.2259073842302879</v>
+      </c>
+      <c r="I11">
+        <v>0.2849951231668471</v>
+      </c>
+      <c r="J11">
+        <v>13.58111860372868</v>
+      </c>
+      <c r="K11">
+        <v>2.339597315436241</v>
+      </c>
+      <c r="L11">
+        <v>2.100833333333334</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1.241666666666667</v>
+      </c>
+      <c r="O11">
+        <v>531</v>
+      </c>
+      <c r="P11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>616</v>
+      </c>
+      <c r="C12">
+        <v>1188</v>
+      </c>
+      <c r="D12">
+        <v>30.97222222222222</v>
+      </c>
+      <c r="E12">
+        <v>30.95454545454545</v>
+      </c>
+      <c r="F12">
+        <v>0.2499227679950571</v>
+      </c>
+      <c r="G12">
+        <v>0.2631093671259032</v>
+      </c>
+      <c r="H12">
+        <v>0.2448434777721576</v>
+      </c>
+      <c r="I12">
+        <v>0.3436707032966221</v>
+      </c>
+      <c r="J12">
+        <v>11.65328874024526</v>
+      </c>
+      <c r="K12">
+        <v>2.217049576783555</v>
+      </c>
+      <c r="L12">
+        <v>2.265151515151515</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1.392255892255892</v>
+      </c>
+      <c r="O12">
+        <v>443</v>
+      </c>
+      <c r="P12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>258</v>
+      </c>
+      <c r="C13">
+        <v>1200</v>
+      </c>
+      <c r="D13">
+        <v>36.53416666666666</v>
+      </c>
+      <c r="E13">
+        <v>36.81916666666667</v>
+      </c>
+      <c r="F13">
+        <v>0.1573368354400694</v>
+      </c>
+      <c r="G13">
+        <v>0.1510570582568019</v>
+      </c>
+      <c r="H13">
+        <v>0.2447711886094502</v>
+      </c>
+      <c r="I13">
+        <v>0.3599748779073572</v>
+      </c>
+      <c r="J13">
+        <v>16.48224719101124</v>
+      </c>
+      <c r="K13">
+        <v>3.403773584905661</v>
+      </c>
+      <c r="L13">
+        <v>1.854166666666667</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>1.104166666666667</v>
+      </c>
+      <c r="O13">
+        <v>435</v>
+      </c>
+      <c r="P13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>423</v>
+      </c>
+      <c r="E2">
+        <v>35.57919621749409</v>
+      </c>
+      <c r="F2">
+        <v>36.01418439716312</v>
+      </c>
+      <c r="G2">
+        <v>0.1704382306693102</v>
+      </c>
+      <c r="H2">
+        <v>0.1963798040046609</v>
+      </c>
+      <c r="I2">
+        <v>0.2856660590101952</v>
+      </c>
+      <c r="J2">
+        <v>0.3602749358909698</v>
+      </c>
+      <c r="K2">
+        <v>11.28774193548387</v>
+      </c>
+      <c r="L2">
+        <v>9.987654320987655</v>
+      </c>
+      <c r="M2">
+        <v>1.832151300236407</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.340425531914894</v>
+      </c>
+      <c r="P2">
+        <v>61</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>774</v>
+      </c>
+      <c r="D3">
+        <v>774</v>
+      </c>
+      <c r="E3">
+        <v>27.84496124031008</v>
+      </c>
+      <c r="F3">
+        <v>27.37855297157623</v>
+      </c>
+      <c r="G3">
+        <v>0.3725093849263644</v>
+      </c>
+      <c r="H3">
+        <v>0.5723643490141488</v>
+      </c>
+      <c r="I3">
+        <v>0.2112455306852133</v>
+      </c>
+      <c r="J3">
+        <v>0.2367370914447826</v>
+      </c>
+      <c r="K3">
+        <v>23.38876146788991</v>
+      </c>
+      <c r="L3">
+        <v>2.510204081632653</v>
+      </c>
+      <c r="M3">
+        <v>1.126614987080103</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.1266149870801034</v>
+      </c>
+      <c r="P3">
+        <v>689</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>423</v>
+      </c>
+      <c r="E4">
+        <v>35.57919621749409</v>
+      </c>
+      <c r="F4">
+        <v>36.01418439716312</v>
+      </c>
+      <c r="G4">
+        <v>0.1704382306693102</v>
+      </c>
+      <c r="H4">
+        <v>0.1963798040046614</v>
+      </c>
+      <c r="I4">
+        <v>0.2856660590101952</v>
+      </c>
+      <c r="J4">
+        <v>0.3602749358909696</v>
+      </c>
+      <c r="K4">
+        <v>11.28774193548387</v>
+      </c>
+      <c r="L4">
+        <v>9.987654320987655</v>
+      </c>
+      <c r="M4">
+        <v>1.832151300236407</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.340425531914894</v>
+      </c>
+      <c r="P4">
+        <v>61</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>774</v>
+      </c>
+      <c r="D5">
+        <v>774</v>
+      </c>
+      <c r="E5">
+        <v>27.84496124031008</v>
+      </c>
+      <c r="F5">
+        <v>27.37855297157623</v>
+      </c>
+      <c r="G5">
+        <v>0.3725093849263644</v>
+      </c>
+      <c r="H5">
+        <v>0.5723643490141471</v>
+      </c>
+      <c r="I5">
+        <v>0.2112455306852133</v>
+      </c>
+      <c r="J5">
+        <v>0.2367370914447831</v>
+      </c>
+      <c r="K5">
+        <v>23.38876146788991</v>
+      </c>
+      <c r="L5">
+        <v>2.510204081632653</v>
+      </c>
+      <c r="M5">
+        <v>1.126614987080103</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0.1266149870801034</v>
+      </c>
+      <c r="P5">
+        <v>689</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>755</v>
+      </c>
+      <c r="E6">
+        <v>19.94834437086093</v>
+      </c>
+      <c r="F6">
+        <v>20.40397350993377</v>
+      </c>
+      <c r="G6">
+        <v>0.3646022647840067</v>
+      </c>
+      <c r="H6">
+        <v>0.3641251442938512</v>
+      </c>
+      <c r="I6">
+        <v>0.515358361774744</v>
+      </c>
+      <c r="J6">
+        <v>0.5504226801976329</v>
+      </c>
+      <c r="K6">
+        <v>5.305188679245283</v>
+      </c>
+      <c r="L6">
+        <v>1.318590186592951</v>
+      </c>
+      <c r="M6">
+        <v>2.80794701986755</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.916556291390729</v>
+      </c>
+      <c r="P6">
+        <v>287</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>445</v>
+      </c>
+      <c r="D7">
+        <v>445</v>
+      </c>
+      <c r="E7">
+        <v>11.3438202247191</v>
+      </c>
+      <c r="F7">
+        <v>10.9191011235955</v>
+      </c>
+      <c r="G7">
+        <v>0.9667608081685857</v>
+      </c>
+      <c r="H7">
+        <v>0.9713073420242881</v>
+      </c>
+      <c r="I7">
+        <v>0.1835070231082918</v>
+      </c>
+      <c r="J7">
+        <v>0.1816937730003445</v>
+      </c>
+      <c r="K7">
+        <v>9.912663755458516</v>
+      </c>
+      <c r="L7">
+        <v>1.153846153846154</v>
+      </c>
+      <c r="M7">
+        <v>1.029213483146067</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0.02921348314606742</v>
+      </c>
+      <c r="P7">
+        <v>433</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>139</v>
+      </c>
+      <c r="E8">
+        <v>18.88489208633094</v>
+      </c>
+      <c r="F8">
+        <v>19.41007194244604</v>
+      </c>
+      <c r="G8">
+        <v>0.2220434432823813</v>
+      </c>
+      <c r="H8">
+        <v>0.2316744195698486</v>
+      </c>
+      <c r="I8">
+        <v>0.5431809300508011</v>
+      </c>
+      <c r="J8">
+        <v>0.6261234588263962</v>
+      </c>
+      <c r="K8">
+        <v>5.521994134897361</v>
+      </c>
+      <c r="L8">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="M8">
+        <v>2.453237410071942</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.899280575539568</v>
+      </c>
+      <c r="P8">
+        <v>15</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1061</v>
+      </c>
+      <c r="D9">
+        <v>1061</v>
+      </c>
+      <c r="E9">
+        <v>21.03393025447691</v>
+      </c>
+      <c r="F9">
+        <v>20.5306314797361</v>
+      </c>
+      <c r="G9">
+        <v>0.4992472713586752</v>
+      </c>
+      <c r="H9">
+        <v>0.5381623958024905</v>
+      </c>
+      <c r="I9">
+        <v>0.1104140526976161</v>
+      </c>
+      <c r="J9">
+        <v>0.1179989825059208</v>
+      </c>
+      <c r="K9">
+        <v>12.6839378238342</v>
+      </c>
+      <c r="L9">
+        <v>1.650103519668737</v>
+      </c>
+      <c r="M9">
+        <v>1.455230914231857</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0.4552309142318567</v>
+      </c>
+      <c r="P9">
+        <v>749</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1133</v>
+      </c>
+      <c r="E10">
+        <v>39.83318623124448</v>
+      </c>
+      <c r="F10">
+        <v>40.33274492497794</v>
+      </c>
+      <c r="G10">
+        <v>0.06593481521887358</v>
+      </c>
+      <c r="H10">
+        <v>0.05655289759685096</v>
+      </c>
+      <c r="I10">
+        <v>0.2543084103760883</v>
+      </c>
+      <c r="J10">
+        <v>0.3671109336966049</v>
+      </c>
+      <c r="K10">
+        <v>15.07022607022607</v>
+      </c>
+      <c r="L10">
+        <v>6.15406162464986</v>
+      </c>
+      <c r="M10">
+        <v>1.83495145631068</v>
+      </c>
+      <c r="N10">
+        <v>67</v>
+      </c>
+      <c r="O10">
+        <v>1.260370697263901</v>
+      </c>
+      <c r="P10">
+        <v>312</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>62</v>
+      </c>
+      <c r="D11">
+        <v>62</v>
+      </c>
+      <c r="E11">
+        <v>55.67741935483871</v>
+      </c>
+      <c r="F11">
+        <v>55.20967741935484</v>
+      </c>
+      <c r="G11">
+        <v>0.184070796460177</v>
+      </c>
+      <c r="H11">
+        <v>0.1840892989249653</v>
+      </c>
+      <c r="I11">
+        <v>0.1588812853317465</v>
+      </c>
+      <c r="J11">
+        <v>0.1588743054582983</v>
+      </c>
+      <c r="K11">
+        <v>38.75609756097561</v>
+      </c>
+      <c r="L11">
+        <v>3.55</v>
+      </c>
+      <c r="M11">
+        <v>1.32258064516129</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0.3225806451612903</v>
+      </c>
+      <c r="P11">
+        <v>47</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1055</v>
+      </c>
+      <c r="E12">
+        <v>38.539336492891</v>
+      </c>
+      <c r="F12">
+        <v>39.02085308056872</v>
+      </c>
+      <c r="G12">
+        <v>0.09375315624684376</v>
+      </c>
+      <c r="H12">
+        <v>0.08809914417496577</v>
+      </c>
+      <c r="I12">
+        <v>0.2631631431990427</v>
+      </c>
+      <c r="J12">
+        <v>0.3811412475090621</v>
+      </c>
+      <c r="K12">
+        <v>16.59409594095941</v>
+      </c>
+      <c r="L12">
+        <v>5.163879598662207</v>
+      </c>
+      <c r="M12">
+        <v>1.798104265402844</v>
+      </c>
+      <c r="N12">
+        <v>20</v>
+      </c>
+      <c r="O12">
+        <v>1.133649289099526</v>
+      </c>
+      <c r="P12">
+        <v>317</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>144</v>
+      </c>
+      <c r="D13">
+        <v>144</v>
+      </c>
+      <c r="E13">
+        <v>56.75</v>
+      </c>
+      <c r="F13">
+        <v>56.38888888888889</v>
+      </c>
+      <c r="G13">
+        <v>0.1794967613353264</v>
+      </c>
+      <c r="H13">
+        <v>0.1795782908135868</v>
+      </c>
+      <c r="I13">
+        <v>0.1312688064192578</v>
+      </c>
+      <c r="J13">
+        <v>0.130958904340612</v>
+      </c>
+      <c r="K13">
+        <v>46.125</v>
+      </c>
+      <c r="L13">
+        <v>2.291666666666667</v>
+      </c>
+      <c r="M13">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="P13">
+        <v>127</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>423</v>
+      </c>
+      <c r="E14">
+        <v>21.52245862884161</v>
+      </c>
+      <c r="F14">
+        <v>22.01418439716312</v>
+      </c>
+      <c r="G14">
+        <v>0.2169104941826978</v>
+      </c>
+      <c r="H14">
+        <v>0.230335314274878</v>
+      </c>
+      <c r="I14">
+        <v>0.4758690516368546</v>
+      </c>
+      <c r="J14">
+        <v>0.5520192276571227</v>
+      </c>
+      <c r="K14">
+        <v>5.809067131647777</v>
+      </c>
+      <c r="L14">
+        <v>2.172055427251732</v>
+      </c>
+      <c r="M14">
+        <v>2.711583924349882</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.047281323877069</v>
+      </c>
+      <c r="P14">
+        <v>51</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>776</v>
+      </c>
+      <c r="D15">
+        <v>776</v>
+      </c>
+      <c r="E15">
+        <v>35.02319587628866</v>
+      </c>
+      <c r="F15">
+        <v>34.52835051546392</v>
+      </c>
+      <c r="G15">
+        <v>0.2939171274903417</v>
+      </c>
+      <c r="H15">
+        <v>0.3355515893152567</v>
+      </c>
+      <c r="I15">
+        <v>0.1439388115919748</v>
+      </c>
+      <c r="J15">
+        <v>0.1776404382798292</v>
+      </c>
+      <c r="K15">
+        <v>20.00238473767886</v>
+      </c>
+      <c r="L15">
+        <v>2.002066115702479</v>
+      </c>
+      <c r="M15">
+        <v>1.621134020618557</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0.6237113402061856</v>
+      </c>
+      <c r="P15">
+        <v>507</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>327</v>
+      </c>
+      <c r="E16">
+        <v>21.13761467889908</v>
+      </c>
+      <c r="F16">
+        <v>21.65749235474006</v>
+      </c>
+      <c r="G16">
+        <v>0.2283978739559605</v>
+      </c>
+      <c r="H16">
+        <v>0.240517802170847</v>
+      </c>
+      <c r="I16">
+        <v>0.4843819393042191</v>
+      </c>
+      <c r="J16">
+        <v>0.5561332243075036</v>
+      </c>
+      <c r="K16">
+        <v>5.557502738225629</v>
+      </c>
+      <c r="L16">
+        <v>2.049707602339181</v>
+      </c>
+      <c r="M16">
+        <v>2.792048929663609</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.091743119266055</v>
+      </c>
+      <c r="P16">
+        <v>53</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>872</v>
+      </c>
+      <c r="D17">
+        <v>872</v>
+      </c>
+      <c r="E17">
+        <v>27.90825688073394</v>
+      </c>
+      <c r="F17">
+        <v>27.40022935779816</v>
+      </c>
+      <c r="G17">
+        <v>0.3716331401295602</v>
+      </c>
+      <c r="H17">
+        <v>0.4220923459700771</v>
+      </c>
+      <c r="I17">
+        <v>0.1361800095564919</v>
+      </c>
+      <c r="J17">
+        <v>0.1634102493496365</v>
+      </c>
+      <c r="K17">
+        <v>16.27272727272727</v>
+      </c>
+      <c r="L17">
+        <v>2.008130081300813</v>
+      </c>
+      <c r="M17">
+        <v>1.564220183486239</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0.5642201834862385</v>
+      </c>
+      <c r="P17">
+        <v>592</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>571</v>
+      </c>
+      <c r="E18">
+        <v>27.99824868651489</v>
+      </c>
+      <c r="F18">
+        <v>28.46059544658494</v>
+      </c>
+      <c r="G18">
+        <v>0.1611312921639855</v>
+      </c>
+      <c r="H18">
+        <v>0.1864207323642138</v>
+      </c>
+      <c r="I18">
+        <v>0.3641581632653061</v>
+      </c>
+      <c r="J18">
+        <v>0.4542225942146392</v>
+      </c>
+      <c r="K18">
+        <v>7.000602046959663</v>
+      </c>
+      <c r="L18">
+        <v>2.688059701492537</v>
+      </c>
+      <c r="M18">
+        <v>2.908931698774081</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.34676007005254</v>
+      </c>
+      <c r="P18">
+        <v>48</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>629</v>
+      </c>
+      <c r="D19">
+        <v>629</v>
+      </c>
+      <c r="E19">
+        <v>38.6550079491256</v>
+      </c>
+      <c r="F19">
+        <v>38.18918918918919</v>
+      </c>
+      <c r="G19">
+        <v>0.2655689254802618</v>
+      </c>
+      <c r="H19">
+        <v>0.309503430206659</v>
+      </c>
+      <c r="I19">
+        <v>0.1484268125854993</v>
+      </c>
+      <c r="J19">
+        <v>0.1914876043174413</v>
+      </c>
+      <c r="K19">
+        <v>23.20468431771894</v>
+      </c>
+      <c r="L19">
+        <v>1.912181303116147</v>
+      </c>
+      <c r="M19">
+        <v>1.56120826709062</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0.56120826709062</v>
+      </c>
+      <c r="P19">
+        <v>441</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>424</v>
+      </c>
+      <c r="E20">
+        <v>26.07311320754717</v>
+      </c>
+      <c r="F20">
+        <v>26.6061320754717</v>
+      </c>
+      <c r="G20">
+        <v>0.1945254444548961</v>
+      </c>
+      <c r="H20">
+        <v>0.1983519100842268</v>
+      </c>
+      <c r="I20">
+        <v>0.3910840932117528</v>
+      </c>
+      <c r="J20">
+        <v>0.4515662379809314</v>
+      </c>
+      <c r="K20">
+        <v>6.383805668016194</v>
+      </c>
+      <c r="L20">
+        <v>2.474974463738508</v>
+      </c>
+      <c r="M20">
+        <v>2.912735849056604</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.308962264150944</v>
+      </c>
+      <c r="P20">
+        <v>27</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>776</v>
+      </c>
+      <c r="D21">
+        <v>776</v>
+      </c>
+      <c r="E21">
+        <v>36.94974226804123</v>
+      </c>
+      <c r="F21">
+        <v>36.43170103092783</v>
+      </c>
+      <c r="G21">
+        <v>0.2783811879413557</v>
+      </c>
+      <c r="H21">
+        <v>0.3144663277341574</v>
+      </c>
+      <c r="I21">
+        <v>0.1606837606837607</v>
+      </c>
+      <c r="J21">
+        <v>0.1939820398148208</v>
+      </c>
+      <c r="K21">
+        <v>20.49300155520995</v>
+      </c>
+      <c r="L21">
+        <v>2.080234833659491</v>
+      </c>
+      <c r="M21">
+        <v>1.657216494845361</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0.6585051546391752</v>
+      </c>
+      <c r="P21">
+        <v>504</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>572</v>
+      </c>
+      <c r="E22">
+        <v>22.05944055944056</v>
+      </c>
+      <c r="F22">
+        <v>22.38636363636364</v>
+      </c>
+      <c r="G22">
+        <v>0.2267142619956832</v>
+      </c>
+      <c r="H22">
+        <v>0.2417672806241261</v>
+      </c>
+      <c r="I22">
+        <v>0.4679146570751246</v>
+      </c>
+      <c r="J22">
+        <v>0.5593600022924624</v>
+      </c>
+      <c r="K22">
+        <v>5.73785803237858</v>
+      </c>
+      <c r="L22">
+        <v>2.240506329113924</v>
+      </c>
+      <c r="M22">
+        <v>2.807692307692307</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.071678321678322</v>
+      </c>
+      <c r="P22">
+        <v>69</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>616</v>
+      </c>
+      <c r="D23">
+        <v>616</v>
+      </c>
+      <c r="E23">
+        <v>39.24837662337662</v>
+      </c>
+      <c r="F23">
+        <v>38.91071428571428</v>
+      </c>
+      <c r="G23">
+        <v>0.2617885488731378</v>
+      </c>
+      <c r="H23">
+        <v>0.2829270188775544</v>
+      </c>
+      <c r="I23">
+        <v>0.1279921209266476</v>
+      </c>
+      <c r="J23">
+        <v>0.1433877828004837</v>
+      </c>
+      <c r="K23">
+        <v>20.40921658986175</v>
+      </c>
+      <c r="L23">
+        <v>2.157782515991471</v>
+      </c>
+      <c r="M23">
+        <v>1.761363636363636</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0.7613636363636364</v>
+      </c>
+      <c r="P23">
+        <v>374</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>942</v>
+      </c>
+      <c r="E24">
+        <v>32.89596602972399</v>
+      </c>
+      <c r="F24">
+        <v>33.39490445859872</v>
+      </c>
+      <c r="G24">
+        <v>0.137356054050456</v>
+      </c>
+      <c r="H24">
+        <v>0.1355294169020354</v>
+      </c>
+      <c r="I24">
+        <v>0.3086905230043256</v>
+      </c>
+      <c r="J24">
+        <v>0.4352244079760967</v>
+      </c>
+      <c r="K24">
+        <v>12.69917012448133</v>
+      </c>
+      <c r="L24">
+        <v>3.409020217729394</v>
+      </c>
+      <c r="M24">
+        <v>2.046709129511677</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>1.365180467091295</v>
+      </c>
+      <c r="P24">
+        <v>205</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>258</v>
+      </c>
+      <c r="D25">
+        <v>258</v>
+      </c>
+      <c r="E25">
+        <v>49.81782945736434</v>
+      </c>
+      <c r="F25">
+        <v>49.32170542635659</v>
+      </c>
+      <c r="G25">
+        <v>0.2050019849146487</v>
+      </c>
+      <c r="H25">
+        <v>0.2077510045986244</v>
+      </c>
+      <c r="I25">
+        <v>0.08831314670730729</v>
+      </c>
+      <c r="J25">
+        <v>0.08522659370289133</v>
+      </c>
+      <c r="K25">
+        <v>41.04040404040404</v>
+      </c>
+      <c r="L25">
+        <v>3.230769230769231</v>
+      </c>
+      <c r="M25">
+        <v>1.151162790697674</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0.1511627906976744</v>
+      </c>
+      <c r="P25">
+        <v>230</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>